--- a/USDATAX/NVDA.xlsx
+++ b/USDATAX/NVDA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="96">
   <si>
     <t>Kalem</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU23"/>
+  <dimension ref="A1:BU24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4103,6 +4106,227 @@
       </c>
       <c r="BT23">
         <v>27414000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:73">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>56796000</v>
+      </c>
+      <c r="E24">
+        <v>-155392000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>107845000</v>
+      </c>
+      <c r="H24">
+        <v>-230965000</v>
+      </c>
+      <c r="I24">
+        <v>-110107000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>103783000</v>
+      </c>
+      <c r="L24">
+        <v>147393000</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>-175207000</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>197090000</v>
+      </c>
+      <c r="Q24">
+        <v>154862000</v>
+      </c>
+      <c r="R24">
+        <v>174030000</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>252217000</v>
+      </c>
+      <c r="U24">
+        <v>72826000</v>
+      </c>
+      <c r="V24">
+        <v>139623000</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>140988000</v>
+      </c>
+      <c r="Y24">
+        <v>82781000</v>
+      </c>
+      <c r="Z24">
+        <v>105534000</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>213000000</v>
+      </c>
+      <c r="AC24">
+        <v>151000000</v>
+      </c>
+      <c r="AD24">
+        <v>163000000</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>245000000</v>
+      </c>
+      <c r="AG24">
+        <v>176000000</v>
+      </c>
+      <c r="AH24">
+        <v>76000000</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>639000000</v>
+      </c>
+      <c r="AK24">
+        <v>245000000</v>
+      </c>
+      <c r="AL24">
+        <v>317000000</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>895000000</v>
+      </c>
+      <c r="AO24">
+        <v>554000000</v>
+      </c>
+      <c r="AP24">
+        <v>688000000</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1058000000</v>
+      </c>
+      <c r="AS24">
+        <v>1295000000</v>
+      </c>
+      <c r="AT24">
+        <v>1157000000</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>927000000</v>
+      </c>
+      <c r="AW24">
+        <v>358000000</v>
+      </c>
+      <c r="AX24">
+        <v>571000000</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>1398000000</v>
+      </c>
+      <c r="BA24">
+        <v>976000000</v>
+      </c>
+      <c r="BB24">
+        <v>651000000</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>2671000000</v>
+      </c>
+      <c r="BE24">
+        <v>2237000000</v>
+      </c>
+      <c r="BF24">
+        <v>2444000000</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>601000000</v>
+      </c>
+      <c r="BI24">
+        <v>2202000000</v>
+      </c>
+      <c r="BJ24">
+        <v>499000000</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>10417000000</v>
+      </c>
+      <c r="BM24">
+        <v>2524000000</v>
+      </c>
+      <c r="BN24">
+        <v>6800000000</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>21869000000</v>
+      </c>
+      <c r="BQ24">
+        <v>17319000000</v>
+      </c>
+      <c r="BR24">
+        <v>18642000000</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>22249000000</v>
+      </c>
+      <c r="BU24">
+        <v>28440000000</v>
       </c>
     </row>
   </sheetData>
@@ -6056,7 +6280,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7577,6 +7801,227 @@
       </c>
       <c r="AY10">
         <v>-1090000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>56796000</v>
+      </c>
+      <c r="E11">
+        <v>-155392000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>107845000</v>
+      </c>
+      <c r="H11">
+        <v>-230965000</v>
+      </c>
+      <c r="I11">
+        <v>-110107000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>103783000</v>
+      </c>
+      <c r="L11">
+        <v>147393000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-175207000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>197090000</v>
+      </c>
+      <c r="Q11">
+        <v>154862000</v>
+      </c>
+      <c r="R11">
+        <v>174030000</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>252217000</v>
+      </c>
+      <c r="U11">
+        <v>72826000</v>
+      </c>
+      <c r="V11">
+        <v>139623000</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>140988000</v>
+      </c>
+      <c r="Y11">
+        <v>82781000</v>
+      </c>
+      <c r="Z11">
+        <v>105534000</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>213000000</v>
+      </c>
+      <c r="AC11">
+        <v>151000000</v>
+      </c>
+      <c r="AD11">
+        <v>163000000</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>245000000</v>
+      </c>
+      <c r="AG11">
+        <v>176000000</v>
+      </c>
+      <c r="AH11">
+        <v>76000000</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>639000000</v>
+      </c>
+      <c r="AK11">
+        <v>245000000</v>
+      </c>
+      <c r="AL11">
+        <v>317000000</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>895000000</v>
+      </c>
+      <c r="AO11">
+        <v>554000000</v>
+      </c>
+      <c r="AP11">
+        <v>688000000</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1058000000</v>
+      </c>
+      <c r="AS11">
+        <v>1295000000</v>
+      </c>
+      <c r="AT11">
+        <v>1157000000</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>927000000</v>
+      </c>
+      <c r="AW11">
+        <v>358000000</v>
+      </c>
+      <c r="AX11">
+        <v>571000000</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1398000000</v>
+      </c>
+      <c r="BA11">
+        <v>976000000</v>
+      </c>
+      <c r="BB11">
+        <v>651000000</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>2671000000</v>
+      </c>
+      <c r="BE11">
+        <v>2237000000</v>
+      </c>
+      <c r="BF11">
+        <v>2444000000</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>601000000</v>
+      </c>
+      <c r="BI11">
+        <v>2202000000</v>
+      </c>
+      <c r="BJ11">
+        <v>499000000</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>10417000000</v>
+      </c>
+      <c r="BM11">
+        <v>2524000000</v>
+      </c>
+      <c r="BN11">
+        <v>6800000000</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>21869000000</v>
+      </c>
+      <c r="BQ11">
+        <v>17319000000</v>
+      </c>
+      <c r="BR11">
+        <v>18642000000</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>22249000000</v>
+      </c>
+      <c r="BU11">
+        <v>28440000000</v>
       </c>
     </row>
   </sheetData>
